--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>0.34598293691</v>
+        <v>0.1351371998386667</v>
       </c>
       <c r="R2">
-        <v>3.11384643219</v>
+        <v>1.216234798548</v>
       </c>
       <c r="S2">
-        <v>0.004526369975162076</v>
+        <v>0.002250884653560849</v>
       </c>
       <c r="T2">
-        <v>0.00498201477599805</v>
+        <v>0.00235518832244885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>2.636647883136667</v>
+        <v>1.779083437259334</v>
       </c>
       <c r="R3">
-        <v>23.72983094823</v>
+        <v>16.011750935334</v>
       </c>
       <c r="S3">
-        <v>0.03449431327420908</v>
+        <v>0.02963293313101129</v>
       </c>
       <c r="T3">
-        <v>0.0379666663050145</v>
+        <v>0.03100609263102728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>0.0002853818066666667</v>
+        <v>0.052157656278</v>
       </c>
       <c r="R4">
-        <v>0.00256843626</v>
+        <v>0.312945937668</v>
       </c>
       <c r="S4">
-        <v>3.733547245682603E-06</v>
+        <v>0.0008687531502947427</v>
       </c>
       <c r="T4">
-        <v>4.109382937529652E-06</v>
+        <v>0.0006060068490339212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>0.100998886685</v>
+        <v>0.0002352659446666667</v>
       </c>
       <c r="R5">
-        <v>0.60599332011</v>
+        <v>0.002117393502</v>
       </c>
       <c r="S5">
-        <v>0.001321332006424064</v>
+        <v>3.918658259812295E-06</v>
       </c>
       <c r="T5">
-        <v>0.0009695621607199157</v>
+        <v>4.100244834215426E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>35.59684</v>
       </c>
       <c r="I6">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J6">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N6">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O6">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P6">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q6">
-        <v>5.859607698013333</v>
+        <v>3.391912137875555</v>
       </c>
       <c r="R6">
-        <v>52.73646928212</v>
+        <v>30.52720924088</v>
       </c>
       <c r="S6">
-        <v>0.07665913408156148</v>
+        <v>0.05649667883074132</v>
       </c>
       <c r="T6">
-        <v>0.08437598800037989</v>
+        <v>0.05911467654675538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>11.290081</v>
       </c>
       <c r="O7">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P7">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q7">
         <v>44.65457854933778</v>
@@ -886,10 +886,10 @@
         <v>401.8912069440401</v>
       </c>
       <c r="S7">
-        <v>0.5841997452371964</v>
+        <v>0.7437796971368975</v>
       </c>
       <c r="T7">
-        <v>0.6430079244244266</v>
+        <v>0.7782456797153725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N8">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O8">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P8">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q8">
-        <v>0.004833259831111112</v>
+        <v>1.30914498468</v>
       </c>
       <c r="R8">
-        <v>0.04349933848</v>
+        <v>7.85486990808</v>
       </c>
       <c r="S8">
-        <v>6.323179511996894E-05</v>
+        <v>0.02180550106721405</v>
       </c>
       <c r="T8">
-        <v>6.959699258549599E-05</v>
+        <v>0.01521063030259513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N9">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O9">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P9">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q9">
-        <v>1.710529019713333</v>
+        <v>0.005905120235555556</v>
       </c>
       <c r="R9">
-        <v>10.26317411828</v>
+        <v>0.05314608212</v>
       </c>
       <c r="S9">
-        <v>0.02237823421473496</v>
+        <v>9.835740663201512E-05</v>
       </c>
       <c r="T9">
-        <v>0.01642061874899546</v>
+        <v>0.000102915187217439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H10">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I10">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J10">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N10">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O10">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P10">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q10">
-        <v>0.2257719611246666</v>
+        <v>0.1083183238133333</v>
       </c>
       <c r="R10">
-        <v>2.031947650122</v>
+        <v>0.97486491432</v>
       </c>
       <c r="S10">
-        <v>0.002953693136416097</v>
+        <v>0.001804181624763139</v>
       </c>
       <c r="T10">
-        <v>0.003251025199030954</v>
+        <v>0.00188778553689849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H11">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I11">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J11">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>11.290081</v>
       </c>
       <c r="O11">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P11">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q11">
-        <v>1.720550639541556</v>
+        <v>1.426012497506667</v>
       </c>
       <c r="R11">
-        <v>15.484955755874</v>
+        <v>12.83411247756</v>
       </c>
       <c r="S11">
-        <v>0.02250934345236986</v>
+        <v>0.02375208048010272</v>
       </c>
       <c r="T11">
-        <v>0.0247752354078626</v>
+        <v>0.02485272734527129</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N12">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O12">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P12">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q12">
-        <v>0.0001862265542222222</v>
+        <v>0.04180662252</v>
       </c>
       <c r="R12">
-        <v>0.001676038988</v>
+        <v>0.25083973512</v>
       </c>
       <c r="S12">
-        <v>2.436334841069428E-06</v>
+        <v>0.0006963433100569107</v>
       </c>
       <c r="T12">
-        <v>2.681587286079533E-06</v>
+        <v>0.0004857407596510824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,46 +1222,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N13">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O13">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P13">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q13">
-        <v>0.06590705576966666</v>
+        <v>0.0001885758533333333</v>
       </c>
       <c r="R13">
-        <v>0.395442334618</v>
+        <v>0.00169718268</v>
       </c>
       <c r="S13">
-        <v>0.0008622382394099194</v>
+        <v>3.140974467481088E-06</v>
       </c>
       <c r="T13">
-        <v>0.0006326900176436929</v>
+        <v>3.286523978569332E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H14">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I14">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J14">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N14">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O14">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P14">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q14">
-        <v>2.0949004852555</v>
+        <v>0.442614364258</v>
       </c>
       <c r="R14">
-        <v>12.569402911533</v>
+        <v>2.655686185548</v>
       </c>
       <c r="S14">
-        <v>0.0274068274640942</v>
+        <v>0.007372314071501584</v>
       </c>
       <c r="T14">
-        <v>0.02011048148790317</v>
+        <v>0.005142626324915612</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H15">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I15">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J15">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>11.290081</v>
       </c>
       <c r="O15">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P15">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q15">
-        <v>15.96470328612683</v>
+        <v>5.827025315639001</v>
       </c>
       <c r="R15">
-        <v>95.78821971676099</v>
+        <v>34.962151893834</v>
       </c>
       <c r="S15">
-        <v>0.20886045497525</v>
+        <v>0.0970566348462219</v>
       </c>
       <c r="T15">
-        <v>0.1532568597674287</v>
+        <v>0.06770275934083222</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H16">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I16">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J16">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N16">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O16">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P16">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q16">
-        <v>0.001727965230333333</v>
+        <v>0.170831776167</v>
       </c>
       <c r="R16">
-        <v>0.010367791382</v>
+        <v>0.6833271046680001</v>
       </c>
       <c r="S16">
-        <v>2.260634586941896E-05</v>
+        <v>0.002845423937849119</v>
       </c>
       <c r="T16">
-        <v>1.658800168358384E-05</v>
+        <v>0.001323234641245419</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N17">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O17">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P17">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q17">
-        <v>0.61154061126925</v>
+        <v>0.0007705656670000001</v>
       </c>
       <c r="R17">
-        <v>2.446162445077</v>
+        <v>0.004623394002</v>
       </c>
       <c r="S17">
-        <v>0.008000565247995008</v>
+        <v>1.283476671473033E-05</v>
       </c>
       <c r="T17">
-        <v>0.003913750312116073</v>
+        <v>8.953011027632353E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H18">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I18">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J18">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N18">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O18">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P18">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q18">
-        <v>0.049186555262</v>
+        <v>0.04752719444</v>
       </c>
       <c r="R18">
-        <v>0.442678997358</v>
+        <v>0.42774474996</v>
       </c>
       <c r="S18">
-        <v>0.0006434899619846891</v>
+        <v>0.0007916268260665035</v>
       </c>
       <c r="T18">
-        <v>0.0007082665615948358</v>
+        <v>0.0008283099951566106</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H19">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I19">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J19">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>11.290081</v>
       </c>
       <c r="O19">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P19">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q19">
-        <v>0.3748382159206667</v>
+        <v>0.62569628902</v>
       </c>
       <c r="R19">
-        <v>3.373543943286001</v>
+        <v>5.63126660118</v>
       </c>
       <c r="S19">
-        <v>0.004903873182994494</v>
+        <v>0.01042178006075656</v>
       </c>
       <c r="T19">
-        <v>0.005397519158036646</v>
+        <v>0.01090471457939619</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,46 +1656,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H20">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I20">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J20">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N20">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O20">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P20">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q20">
-        <v>4.057121466666667E-05</v>
+        <v>0.01834363206</v>
       </c>
       <c r="R20">
-        <v>0.000365140932</v>
+        <v>0.11006179236</v>
       </c>
       <c r="S20">
-        <v>5.30778568339702E-07</v>
+        <v>0.0003055368909797899</v>
       </c>
       <c r="T20">
-        <v>5.842091311055059E-07</v>
+        <v>0.0002131301031869233</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1718,46 +1718,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H21">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I21">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J21">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N21">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O21">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P21">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q21">
-        <v>0.014358474917</v>
+        <v>8.274205999999999E-05</v>
       </c>
       <c r="R21">
-        <v>0.086150849502</v>
+        <v>0.00074467854</v>
       </c>
       <c r="S21">
-        <v>0.0001878467485531889</v>
+        <v>1.378175907746769E-06</v>
       </c>
       <c r="T21">
-        <v>0.0001378374992249968</v>
+        <v>1.442039155169791E-06</v>
       </c>
     </row>
   </sheetData>
